--- a/PPL.xlsx
+++ b/PPL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ppl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C5B8110-AFC9-4494-BA22-CAE193790D88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A33A49FE-1044-4FF2-BFCD-D856257D4357}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-12195" windowWidth="18240" windowHeight="28590" activeTab="2" xr2:uid="{715C4A53-39D8-4EE5-B379-BEA38DED56CE}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="1" sheetId="1" r:id="rId1"/>
     <sheet name="2" sheetId="2" r:id="rId2"/>
     <sheet name="3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="65">
   <si>
     <t>Biaya Operasional</t>
   </si>
@@ -223,6 +224,12 @@
   </si>
   <si>
     <t>Laba Bersih</t>
+  </si>
+  <si>
+    <t>Lahan</t>
+  </si>
+  <si>
+    <t>slot</t>
   </si>
 </sst>
 </file>
@@ -231,7 +238,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="42" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -298,27 +305,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -329,31 +326,41 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency [0]" xfId="1" builtinId="7"/>
@@ -687,29 +694,29 @@
       <c r="C6" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="13" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="9" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
     </row>
     <row r="10" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -717,36 +724,36 @@
       <c r="C11" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="7">
         <v>2500</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="3">
         <v>231000</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="8">
         <f>D11*E11</f>
         <v>577500000</v>
       </c>
     </row>
     <row r="13" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
     </row>
     <row r="14" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -754,154 +761,154 @@
       <c r="C15" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="4">
         <v>3</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="3">
         <v>3850000</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F15" s="8">
         <f>D15*E15</f>
         <v>11550000</v>
       </c>
     </row>
     <row r="17" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
     </row>
     <row r="18" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="13" t="s">
+      <c r="E18" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F18" s="13" t="s">
+      <c r="F18" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G18" s="13" t="s">
+      <c r="G18" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H18" s="13" t="s">
+      <c r="H18" s="10" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="19" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C19" s="9">
+      <c r="C19" s="7">
         <v>2500</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="3">
         <v>231000</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="7">
         <v>2500</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19" s="3">
         <v>318104</v>
       </c>
-      <c r="G19" s="10">
+      <c r="G19" s="8">
         <f>(F19*E19-D19*C19)</f>
         <v>217760000</v>
       </c>
-      <c r="H19" s="10">
+      <c r="H19" s="8">
         <f>G19+F11</f>
         <v>795260000</v>
       </c>
     </row>
     <row r="21" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
     </row>
     <row r="22" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="D22" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="E22" s="13" t="s">
+      <c r="E22" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F22" s="13" t="s">
+      <c r="F22" s="10" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="23" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C23" s="10">
+      <c r="C23" s="8">
         <f>H19</f>
         <v>795260000</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D23" s="8">
         <f>F11</f>
         <v>577500000</v>
       </c>
-      <c r="E23" s="10">
+      <c r="E23" s="8">
         <f>F15</f>
         <v>11550000</v>
       </c>
-      <c r="F23" s="10">
+      <c r="F23" s="8">
         <f>C23-D23-E23</f>
         <v>206210000</v>
       </c>
     </row>
     <row r="25" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C25" s="14" t="s">
+      <c r="C25" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
     </row>
     <row r="26" spans="3:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="C26" s="15" t="s">
+      <c r="C26" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="D26" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E26" s="13" t="s">
+      <c r="E26" s="10" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="27" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C27" s="10">
+      <c r="C27" s="8">
         <f>F23</f>
         <v>206210000</v>
       </c>
-      <c r="D27" s="16">
+      <c r="D27" s="12">
         <v>0.5</v>
       </c>
-      <c r="E27" s="10">
+      <c r="E27" s="8">
         <f>C27*D27</f>
         <v>103105000</v>
       </c>
     </row>
     <row r="29" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C29" s="14" t="s">
+      <c r="C29" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
     </row>
     <row r="30" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C30" s="13" t="s">
+      <c r="C30" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D30" s="13" t="s">
+      <c r="D30" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E30" s="13" t="s">
+      <c r="E30" s="10" t="s">
         <v>22</v>
       </c>
     </row>
@@ -909,11 +916,11 @@
       <c r="C31" s="1">
         <v>1</v>
       </c>
-      <c r="D31" s="10">
+      <c r="D31" s="8">
         <f>E27/3</f>
         <v>34368333.333333336</v>
       </c>
-      <c r="E31" s="8">
+      <c r="E31" s="6">
         <f>C38/3</f>
         <v>5.8345358345358349</v>
       </c>
@@ -922,11 +929,11 @@
       <c r="C32" s="1">
         <v>2</v>
       </c>
-      <c r="D32" s="10">
+      <c r="D32" s="8">
         <f>D31</f>
         <v>34368333.333333336</v>
       </c>
-      <c r="E32" s="8">
+      <c r="E32" s="6">
         <f>E31</f>
         <v>5.8345358345358349</v>
       </c>
@@ -935,11 +942,11 @@
       <c r="C33" s="1">
         <v>3</v>
       </c>
-      <c r="D33" s="10">
+      <c r="D33" s="8">
         <f>D31</f>
         <v>34368333.333333336</v>
       </c>
-      <c r="E33" s="8">
+      <c r="E33" s="6">
         <f>E31</f>
         <v>5.8345358345358349</v>
       </c>
@@ -948,51 +955,51 @@
       <c r="C34" t="s">
         <v>23</v>
       </c>
-      <c r="D34" s="10">
+      <c r="D34" s="8">
         <f>SUM(D31:D33)</f>
         <v>103105000</v>
       </c>
-      <c r="E34" s="8">
+      <c r="E34" s="6">
         <f>SUM(E31:E33)</f>
         <v>17.503607503607505</v>
       </c>
     </row>
     <row r="36" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C36" s="14" t="s">
+      <c r="C36" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
     </row>
     <row r="37" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C37" s="13" t="s">
+      <c r="C37" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D37" s="13" t="s">
+      <c r="D37" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E37" s="13" t="s">
+      <c r="E37" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F37" s="13" t="s">
+      <c r="F37" s="10" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="38" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C38" s="8">
+      <c r="C38" s="6">
         <f>(E27/F38)*100</f>
         <v>17.503607503607505</v>
       </c>
-      <c r="D38" s="8">
+      <c r="D38" s="6">
         <f>E31</f>
         <v>5.8345358345358349</v>
       </c>
-      <c r="E38" s="8">
+      <c r="E38" s="6">
         <f>C38/12</f>
         <v>1.4586339586339587</v>
       </c>
-      <c r="F38" s="5">
+      <c r="F38" s="3">
         <v>589050000</v>
       </c>
     </row>
@@ -1033,32 +1040,32 @@
       <c r="C6" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="17"/>
+      <c r="E6" s="13"/>
     </row>
     <row r="9" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
     </row>
     <row r="10" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="13" t="s">
+      <c r="E10" s="16"/>
+      <c r="F10" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G10" s="13" t="s">
+      <c r="G10" s="10" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1066,14 +1073,14 @@
       <c r="C11" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="26">
+      <c r="D11" s="21">
         <v>32</v>
       </c>
-      <c r="E11" s="26"/>
-      <c r="F11" s="5">
+      <c r="E11" s="21"/>
+      <c r="F11" s="3">
         <v>21000000</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G11" s="8">
         <f>D11*F11</f>
         <v>672000000</v>
       </c>
@@ -1082,51 +1089,51 @@
       <c r="C12" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="26">
+      <c r="D12" s="21">
         <v>1</v>
       </c>
-      <c r="E12" s="26"/>
-      <c r="F12" s="5">
+      <c r="E12" s="21"/>
+      <c r="F12" s="3">
         <v>15010000</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G12" s="8">
         <f>D12*F12</f>
         <v>15010000</v>
       </c>
     </row>
     <row r="13" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="10">
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="8">
         <f>SUM(G11:G12)</f>
         <v>687010000</v>
       </c>
     </row>
     <row r="15" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
     </row>
     <row r="16" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E16" s="14"/>
-      <c r="F16" s="13" t="s">
+      <c r="E16" s="16"/>
+      <c r="F16" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G16" s="13" t="s">
+      <c r="G16" s="10" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1134,46 +1141,46 @@
       <c r="C17" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="26">
+      <c r="D17" s="21">
         <v>4</v>
       </c>
-      <c r="E17" s="26"/>
-      <c r="F17" s="5">
+      <c r="E17" s="21"/>
+      <c r="F17" s="3">
         <v>3435000</v>
       </c>
-      <c r="G17" s="10">
+      <c r="G17" s="8">
         <f>D17*F17</f>
         <v>13740000</v>
       </c>
     </row>
     <row r="19" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="12"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="9"/>
     </row>
     <row r="20" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D20" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="14"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
     </row>
     <row r="21" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="7">
         <v>6000</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="7" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1181,105 +1188,105 @@
       <c r="C22" t="s">
         <v>38</v>
       </c>
-      <c r="D22" s="25">
+      <c r="D22" s="22">
         <v>60000</v>
       </c>
-      <c r="E22" s="25"/>
+      <c r="E22" s="22"/>
     </row>
     <row r="23" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="19">
+      <c r="D23" s="18">
         <f>D22*D21</f>
         <v>360000000</v>
       </c>
-      <c r="E23" s="19"/>
+      <c r="E23" s="18"/>
     </row>
     <row r="25" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C25" s="14" t="s">
+      <c r="C25" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
     </row>
     <row r="26" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="14" t="s">
+      <c r="D26" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E26" s="14"/>
+      <c r="E26" s="16"/>
     </row>
     <row r="27" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="19">
+      <c r="D27" s="18">
         <f>D23</f>
         <v>360000000</v>
       </c>
-      <c r="E27" s="19"/>
+      <c r="E27" s="18"/>
     </row>
     <row r="28" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>16</v>
       </c>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
     </row>
     <row r="29" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>0</v>
       </c>
-      <c r="D29" s="19"/>
-      <c r="E29" s="2"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="19"/>
     </row>
     <row r="30" spans="3:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="C30" s="15" t="s">
+      <c r="C30" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D30" s="27">
+      <c r="D30" s="20">
         <f>D27-G34-H34</f>
         <v>98505000</v>
       </c>
-      <c r="E30" s="27"/>
+      <c r="E30" s="20"/>
     </row>
     <row r="34" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G34" s="5">
+      <c r="G34" s="3">
         <v>171435000</v>
       </c>
-      <c r="H34" s="5">
+      <c r="H34" s="3">
         <v>90060000</v>
       </c>
     </row>
     <row r="35" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G35" s="5">
+      <c r="G35" s="3">
         <f>G34-G17</f>
         <v>157695000</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
     <mergeCell ref="D28:E28"/>
     <mergeCell ref="D29:E29"/>
     <mergeCell ref="D30:E30"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="C25:E25"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D6" r:id="rId1" xr:uid="{3D458DB7-7D50-4C23-9D3C-DD73ED37A0C9}"/>
@@ -1290,10 +1297,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B02035BF-BBDF-46B8-A180-61E628B79444}">
-  <dimension ref="C5:G49"/>
+  <dimension ref="C5:H52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1307,31 +1314,31 @@
       <c r="C5" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="13" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="7" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
     </row>
     <row r="8" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="13" t="s">
+      <c r="E8" s="16"/>
+      <c r="F8" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="G8" s="10" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1339,16 +1346,16 @@
       <c r="C9" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="7">
         <v>1800</v>
       </c>
       <c r="E9" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="3">
         <v>85000</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="3">
         <f>D9*F9</f>
         <v>153000000</v>
       </c>
@@ -1357,17 +1364,17 @@
       <c r="C10" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="7">
         <v>8000</v>
       </c>
       <c r="E10" t="s">
         <v>46</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="3">
         <v>15000</v>
       </c>
-      <c r="G10" s="5">
-        <f t="shared" ref="G10:G15" si="0">D10*F10</f>
+      <c r="G10" s="3">
+        <f t="shared" ref="G10:G16" si="0">D10*F10</f>
         <v>120000000</v>
       </c>
     </row>
@@ -1375,16 +1382,16 @@
       <c r="C11" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="7">
         <v>4</v>
       </c>
       <c r="E11" t="s">
         <v>49</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="3">
         <v>6000000</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="3">
         <f t="shared" si="0"/>
         <v>24000000</v>
       </c>
@@ -1393,16 +1400,16 @@
       <c r="C12" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="7">
         <v>4</v>
       </c>
       <c r="E12" t="s">
         <v>49</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="3">
         <v>450000</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="3">
         <f t="shared" si="0"/>
         <v>1800000</v>
       </c>
@@ -1411,16 +1418,16 @@
       <c r="C13" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="7">
         <v>4</v>
       </c>
       <c r="E13" t="s">
         <v>49</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="3">
         <v>660000</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="3">
         <f t="shared" si="0"/>
         <v>2640000</v>
       </c>
@@ -1429,380 +1436,422 @@
       <c r="C14" t="s">
         <v>52</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="7">
         <v>4</v>
       </c>
       <c r="E14" t="s">
         <v>49</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="3">
         <v>2525000</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="3">
         <f t="shared" si="0"/>
         <v>10100000</v>
       </c>
     </row>
     <row r="15" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" s="7">
+        <v>3</v>
+      </c>
+      <c r="E15" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15" s="3">
+        <v>10000000</v>
+      </c>
+      <c r="G15" s="3">
+        <f t="shared" si="0"/>
+        <v>30000000</v>
+      </c>
+    </row>
+    <row r="16" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D16" s="7">
         <v>1</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E16" t="s">
         <v>54</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F16" s="3">
         <v>2020000</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G16" s="3">
         <f t="shared" si="0"/>
         <v>2020000</v>
       </c>
     </row>
-    <row r="16" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C16" s="3" t="s">
+    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C17" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="18">
-        <f>SUM(G9:G15)</f>
-        <v>313560000</v>
-      </c>
-    </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C18" s="22" t="s">
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="14">
+        <f>SUM(G9:G16)</f>
+        <v>343560000</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C19" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-    </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C19" s="13" t="s">
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+    </row>
+    <row r="20" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C20" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="D20" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E19" s="14"/>
-      <c r="F19" s="13" t="s">
+      <c r="E20" s="16"/>
+      <c r="F20" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G19" s="13" t="s">
+      <c r="G20" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C20" t="s">
+    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
         <v>7</v>
       </c>
-      <c r="D20">
+      <c r="D21">
         <v>2</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E21" t="s">
         <v>54</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F21" s="3">
         <v>16000000</v>
       </c>
-      <c r="G20" s="18">
-        <f>D20*F20</f>
+      <c r="G21" s="14">
+        <f>D21*F21</f>
         <v>32000000</v>
       </c>
     </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C22" s="22" t="s">
+    <row r="23" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C23" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-    </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C23" s="13" t="s">
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+    </row>
+    <row r="24" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C24" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D24" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E23" s="14"/>
-    </row>
-    <row r="24" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C24" t="s">
-        <v>56</v>
-      </c>
-      <c r="D24" s="16">
-        <v>0.97</v>
-      </c>
-      <c r="E24" t="s">
-        <v>37</v>
-      </c>
+      <c r="E24" s="16"/>
     </row>
     <row r="25" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
-        <v>57</v>
-      </c>
-      <c r="D25" s="9">
-        <v>6000</v>
+        <v>56</v>
+      </c>
+      <c r="D25" s="12">
+        <v>0.97</v>
       </c>
       <c r="E25" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
-        <v>59</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
+        <v>57</v>
+      </c>
+      <c r="D26" s="7">
+        <v>6000</v>
       </c>
       <c r="E26" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
+        <v>59</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
         <v>60</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D28" s="3">
         <v>70000</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E28" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C28" s="13" t="s">
+    <row r="29" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C29" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="D28" s="11">
-        <f>D25*D24</f>
+      <c r="D29" s="27">
+        <f>D26*D25</f>
         <v>5820</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E29" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C30" s="22" t="s">
+    <row r="31" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C31" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-    </row>
-    <row r="31" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C31" s="13" t="s">
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+    </row>
+    <row r="32" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C32" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D31" s="14" t="s">
+      <c r="D32" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E31" s="14"/>
-    </row>
-    <row r="32" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C32" t="s">
-        <v>15</v>
-      </c>
-      <c r="D32" s="19">
-        <f>D28*D27</f>
-        <v>407400000</v>
-      </c>
-      <c r="E32" s="19"/>
+      <c r="E32" s="16"/>
     </row>
     <row r="33" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" s="18">
+        <f>D29*D28</f>
+        <v>407400000</v>
+      </c>
+      <c r="E33" s="18"/>
+    </row>
+    <row r="34" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
         <v>0</v>
       </c>
-      <c r="D33" s="19">
-        <f>G20+G16</f>
-        <v>345560000</v>
-      </c>
-      <c r="E33" s="19"/>
-    </row>
-    <row r="34" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C34" s="13" t="s">
+      <c r="D34" s="18">
+        <f>G21+G17</f>
+        <v>375560000</v>
+      </c>
+      <c r="E34" s="18"/>
+    </row>
+    <row r="35" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C35" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D34" s="20">
-        <f>D32-D33</f>
-        <v>61840000</v>
-      </c>
-      <c r="E34" s="20"/>
-    </row>
-    <row r="36" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C36" s="22" t="s">
+      <c r="D35" s="23">
+        <f>D33-D34</f>
+        <v>31840000</v>
+      </c>
+      <c r="E35" s="23"/>
+    </row>
+    <row r="37" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C37" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
-    </row>
-    <row r="37" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C37" s="13" t="s">
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
+    </row>
+    <row r="38" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C38" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D37" s="14" t="s">
+      <c r="D38" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E37" s="14"/>
-    </row>
-    <row r="38" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C38" s="10">
-        <f>D34</f>
-        <v>61840000</v>
-      </c>
-      <c r="D38" s="21">
+      <c r="E38" s="16"/>
+    </row>
+    <row r="39" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C39" s="8">
+        <f>D35</f>
+        <v>31840000</v>
+      </c>
+      <c r="D39" s="26">
         <v>0.51</v>
       </c>
-      <c r="E38" s="21"/>
-    </row>
-    <row r="39" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C39" s="4" t="s">
+      <c r="E39" s="26"/>
+    </row>
+    <row r="40" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C40" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D39" s="19">
-        <f>C38*D38</f>
-        <v>31538400</v>
-      </c>
-      <c r="E39" s="2"/>
-    </row>
-    <row r="41" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C41" s="22" t="s">
+      <c r="D40" s="18">
+        <f>C39*D39</f>
+        <v>16238400</v>
+      </c>
+      <c r="E40" s="19"/>
+    </row>
+    <row r="42" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C42" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D41" s="22"/>
-      <c r="E41" s="22"/>
-      <c r="F41" s="22"/>
-    </row>
-    <row r="42" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C42" s="13" t="s">
+      <c r="D42" s="24"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="24"/>
+    </row>
+    <row r="43" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C43" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D42" s="14" t="s">
+      <c r="D43" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E42" s="14"/>
-      <c r="F42" s="13" t="s">
+      <c r="E43" s="16"/>
+      <c r="F43" s="10" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="43" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C43">
-        <v>1</v>
-      </c>
-      <c r="D43" s="19">
-        <f>D39</f>
-        <v>31538400</v>
-      </c>
-      <c r="E43" s="2"/>
-      <c r="F43" s="7">
-        <f>C49/2</f>
-        <v>9.1267507813404336</v>
       </c>
     </row>
     <row r="44" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44" s="18">
+        <f>D40</f>
+        <v>16238400</v>
+      </c>
+      <c r="E44" s="19"/>
+      <c r="F44" s="5">
+        <f>C50/2</f>
+        <v>4.3237831504952604</v>
+      </c>
+    </row>
+    <row r="45" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C45">
         <v>2</v>
       </c>
-      <c r="D44" s="19">
-        <f>D39</f>
-        <v>31538400</v>
-      </c>
-      <c r="E44" s="2"/>
-      <c r="F44" s="7">
-        <f>F43</f>
-        <v>9.1267507813404336</v>
-      </c>
-    </row>
-    <row r="45" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C45" s="13" t="s">
+      <c r="D45" s="18">
+        <f>D40</f>
+        <v>16238400</v>
+      </c>
+      <c r="E45" s="19"/>
+      <c r="F45" s="5">
+        <f>F44</f>
+        <v>4.3237831504952604</v>
+      </c>
+    </row>
+    <row r="46" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C46" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D45" s="20">
-        <f>SUM(D43:E44)</f>
-        <v>63076800</v>
-      </c>
-      <c r="E45" s="3"/>
-      <c r="F45" s="23">
-        <f>F43+F44</f>
-        <v>18.253501562680867</v>
-      </c>
-    </row>
-    <row r="47" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C47" s="22" t="s">
+      <c r="D46" s="23">
+        <f>SUM(D44:E45)</f>
+        <v>32476800</v>
+      </c>
+      <c r="E46" s="17"/>
+      <c r="F46" s="15">
+        <f>F44+F45</f>
+        <v>8.6475663009905208</v>
+      </c>
+    </row>
+    <row r="48" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C48" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D47" s="22"/>
-      <c r="E47" s="22"/>
-      <c r="F47" s="22"/>
-      <c r="G47" s="22"/>
-    </row>
-    <row r="48" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C48" s="4" t="s">
+      <c r="D48" s="24"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="24"/>
+      <c r="G48" s="24"/>
+    </row>
+    <row r="49" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C49" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="D49" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E48" s="3"/>
-      <c r="F48" s="4" t="s">
+      <c r="E49" s="17"/>
+      <c r="F49" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G48" s="4" t="s">
+      <c r="G49" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="49" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C49" s="7">
-        <f>(D45/G49)*100</f>
-        <v>18.253501562680867</v>
-      </c>
-      <c r="D49" s="24">
-        <f>F43</f>
-        <v>9.1267507813404336</v>
-      </c>
-      <c r="E49" s="2"/>
-      <c r="F49" s="8">
-        <f>C49/12</f>
-        <v>1.5211251302234057</v>
-      </c>
-      <c r="G49" s="5">
-        <v>345560000</v>
+    <row r="50" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C50" s="5">
+        <f>(D46/G50)*100</f>
+        <v>8.6475663009905208</v>
+      </c>
+      <c r="D50" s="25">
+        <f>F44</f>
+        <v>4.3237831504952604</v>
+      </c>
+      <c r="E50" s="19"/>
+      <c r="F50" s="6">
+        <f>C50/12</f>
+        <v>0.72063052508254344</v>
+      </c>
+      <c r="G50" s="3">
+        <f>G17+G21</f>
+        <v>375560000</v>
+      </c>
+    </row>
+    <row r="52" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="G52" s="8">
+        <f>G50+D46</f>
+        <v>408036800</v>
+      </c>
+      <c r="H52" s="8">
+        <f>C39*49%</f>
+        <v>15601600</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="C47:G47"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C31:E31"/>
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="D33:E33"/>
     <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="C48:G48"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D5" r:id="rId1" xr:uid="{1B8C0CC6-CD81-420A-AACF-CA2CDD8602FE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00324554-3676-40FE-938A-CBF8BA3B88F9}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/PPL.xlsx
+++ b/PPL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ppl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A33A49FE-1044-4FF2-BFCD-D856257D4357}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7345E94A-3660-4E55-A1A2-44348F60B3D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-12195" windowWidth="18240" windowHeight="28590" activeTab="2" xr2:uid="{715C4A53-39D8-4EE5-B379-BEA38DED56CE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="2" xr2:uid="{715C4A53-39D8-4EE5-B379-BEA38DED56CE}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="72">
   <si>
     <t>Biaya Operasional</t>
   </si>
@@ -230,6 +230,27 @@
   </si>
   <si>
     <t>slot</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>pupuk 3</t>
+  </si>
+  <si>
+    <t>bibit 3</t>
+  </si>
+  <si>
+    <t>operasional 1</t>
+  </si>
+  <si>
+    <t>karyawan 3</t>
+  </si>
+  <si>
+    <t>sewa lahan 1</t>
+  </si>
+  <si>
+    <t>peralatan 1</t>
   </si>
 </sst>
 </file>
@@ -237,8 +258,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="42" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -272,7 +293,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -282,6 +303,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -297,10 +324,10 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -308,12 +335,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -325,42 +352,46 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency [0]" xfId="1" builtinId="7"/>
@@ -699,12 +730,12 @@
       </c>
     </row>
     <row r="9" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
     </row>
     <row r="10" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C10" s="2" t="s">
@@ -736,12 +767,12 @@
       </c>
     </row>
     <row r="13" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
     </row>
     <row r="14" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C14" s="2" t="s">
@@ -773,13 +804,13 @@
       </c>
     </row>
     <row r="17" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
     </row>
     <row r="18" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C18" s="10" t="s">
@@ -824,12 +855,12 @@
       </c>
     </row>
     <row r="21" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C21" s="16" t="s">
+      <c r="C21" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
     </row>
     <row r="22" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C22" s="10" t="s">
@@ -864,11 +895,11 @@
       </c>
     </row>
     <row r="25" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C25" s="16" t="s">
+      <c r="C25" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
     </row>
     <row r="26" spans="3:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C26" s="11" t="s">
@@ -895,11 +926,11 @@
       </c>
     </row>
     <row r="29" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C29" s="16" t="s">
+      <c r="C29" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
     </row>
     <row r="30" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C30" s="10" t="s">
@@ -965,12 +996,12 @@
       </c>
     </row>
     <row r="36" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C36" s="16" t="s">
+      <c r="C36" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
     </row>
     <row r="37" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C37" s="10" t="s">
@@ -1046,22 +1077,22 @@
       <c r="E6" s="13"/>
     </row>
     <row r="9" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
     </row>
     <row r="10" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C10" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="16"/>
+      <c r="E10" s="18"/>
       <c r="F10" s="10" t="s">
         <v>3</v>
       </c>
@@ -1073,10 +1104,10 @@
       <c r="C11" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="21">
+      <c r="D11" s="22">
         <v>32</v>
       </c>
-      <c r="E11" s="21"/>
+      <c r="E11" s="22"/>
       <c r="F11" s="3">
         <v>21000000</v>
       </c>
@@ -1089,10 +1120,10 @@
       <c r="C12" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="21">
+      <c r="D12" s="22">
         <v>1</v>
       </c>
-      <c r="E12" s="21"/>
+      <c r="E12" s="22"/>
       <c r="F12" s="3">
         <v>15010000</v>
       </c>
@@ -1102,34 +1133,34 @@
       </c>
     </row>
     <row r="13" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
       <c r="G13" s="8">
         <f>SUM(G11:G12)</f>
         <v>687010000</v>
       </c>
     </row>
     <row r="15" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
     </row>
     <row r="16" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C16" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E16" s="16"/>
+      <c r="E16" s="18"/>
       <c r="F16" s="10" t="s">
         <v>3</v>
       </c>
@@ -1141,10 +1172,10 @@
       <c r="C17" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="21">
+      <c r="D17" s="22">
         <v>4</v>
       </c>
-      <c r="E17" s="21"/>
+      <c r="E17" s="22"/>
       <c r="F17" s="3">
         <v>3435000</v>
       </c>
@@ -1154,22 +1185,22 @@
       </c>
     </row>
     <row r="19" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
       <c r="G19" s="9"/>
     </row>
     <row r="20" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C20" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D20" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="16"/>
+      <c r="E20" s="18"/>
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
     </row>
@@ -1188,70 +1219,70 @@
       <c r="C22" t="s">
         <v>38</v>
       </c>
-      <c r="D22" s="22">
+      <c r="D22" s="20">
         <v>60000</v>
       </c>
-      <c r="E22" s="22"/>
+      <c r="E22" s="20"/>
     </row>
     <row r="23" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C23" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="18">
+      <c r="D23" s="21">
         <f>D22*D21</f>
         <v>360000000</v>
       </c>
-      <c r="E23" s="18"/>
+      <c r="E23" s="21"/>
     </row>
     <row r="25" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C25" s="16" t="s">
+      <c r="C25" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
     </row>
     <row r="26" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C26" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="16" t="s">
+      <c r="D26" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E26" s="16"/>
+      <c r="E26" s="18"/>
     </row>
     <row r="27" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="18">
+      <c r="D27" s="21">
         <f>D23</f>
         <v>360000000</v>
       </c>
-      <c r="E27" s="18"/>
+      <c r="E27" s="21"/>
     </row>
     <row r="28" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>16</v>
       </c>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
     </row>
     <row r="29" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>0</v>
       </c>
-      <c r="D29" s="18"/>
-      <c r="E29" s="19"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="23"/>
     </row>
     <row r="30" spans="3:7" ht="30" x14ac:dyDescent="0.25">
       <c r="C30" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D30" s="20">
+      <c r="D30" s="24">
         <f>D27-G34-H34</f>
         <v>98505000</v>
       </c>
-      <c r="E30" s="20"/>
+      <c r="E30" s="24"/>
     </row>
     <row r="34" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G34" s="3">
@@ -1269,6 +1300,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="C25:E25"/>
@@ -1282,11 +1318,6 @@
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D6" r:id="rId1" xr:uid="{3D458DB7-7D50-4C23-9D3C-DD73ED37A0C9}"/>
@@ -1297,10 +1328,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B02035BF-BBDF-46B8-A180-61E628B79444}">
-  <dimension ref="C5:H52"/>
+  <dimension ref="B5:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H52" sqref="H52"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1310,7 +1341,7 @@
     <col min="6" max="19" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>43</v>
       </c>
@@ -1318,23 +1349,25 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C7" s="24" t="s">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="29"/>
+      <c r="C7" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-    </row>
-    <row r="8" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="29"/>
       <c r="C8" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="16"/>
+      <c r="E8" s="18"/>
       <c r="F8" s="10" t="s">
         <v>3</v>
       </c>
@@ -1342,7 +1375,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="29"/>
       <c r="C9" t="s">
         <v>45</v>
       </c>
@@ -1359,8 +1393,12 @@
         <f>D9*F9</f>
         <v>153000000</v>
       </c>
-    </row>
-    <row r="10" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="29"/>
       <c r="C10" t="s">
         <v>47</v>
       </c>
@@ -1377,8 +1415,12 @@
         <f t="shared" ref="G10:G16" si="0">D10*F10</f>
         <v>120000000</v>
       </c>
-    </row>
-    <row r="11" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="29"/>
       <c r="C11" t="s">
         <v>48</v>
       </c>
@@ -1395,8 +1437,12 @@
         <f t="shared" si="0"/>
         <v>24000000</v>
       </c>
-    </row>
-    <row r="12" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="29"/>
       <c r="C12" t="s">
         <v>50</v>
       </c>
@@ -1413,8 +1459,12 @@
         <f t="shared" si="0"/>
         <v>1800000</v>
       </c>
-    </row>
-    <row r="13" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="29"/>
       <c r="C13" t="s">
         <v>51</v>
       </c>
@@ -1431,8 +1481,12 @@
         <f t="shared" si="0"/>
         <v>2640000</v>
       </c>
-    </row>
-    <row r="14" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="29"/>
       <c r="C14" t="s">
         <v>52</v>
       </c>
@@ -1449,8 +1503,12 @@
         <f t="shared" si="0"/>
         <v>10100000</v>
       </c>
-    </row>
-    <row r="15" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="H14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="29"/>
       <c r="C15" t="s">
         <v>63</v>
       </c>
@@ -1468,7 +1526,8 @@
         <v>30000000</v>
       </c>
     </row>
-    <row r="16" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="29"/>
       <c r="C16" t="s">
         <v>53</v>
       </c>
@@ -1486,35 +1545,41 @@
         <v>2020000</v>
       </c>
     </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C17" s="17" t="s">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="29"/>
+      <c r="C17" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
       <c r="G17" s="14">
         <f>SUM(G9:G16)</f>
         <v>343560000</v>
       </c>
     </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C19" s="24" t="s">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="29"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="29"/>
+      <c r="C19" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-    </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="29"/>
       <c r="C20" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D20" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E20" s="16"/>
+      <c r="E20" s="18"/>
       <c r="F20" s="10" t="s">
         <v>3</v>
       </c>
@@ -1522,7 +1587,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="29"/>
       <c r="C21" t="s">
         <v>7</v>
       </c>
@@ -1540,23 +1606,26 @@
         <v>32000000</v>
       </c>
     </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C23" s="24" t="s">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="29"/>
+      <c r="C23" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-    </row>
-    <row r="24" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="29"/>
       <c r="C24" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D24" s="16" t="s">
+      <c r="D24" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E24" s="16"/>
-    </row>
-    <row r="25" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E24" s="18"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="29"/>
       <c r="C25" t="s">
         <v>56</v>
       </c>
@@ -1567,7 +1636,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="29"/>
       <c r="C26" t="s">
         <v>57</v>
       </c>
@@ -1578,7 +1648,8 @@
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="29"/>
       <c r="C27" t="s">
         <v>59</v>
       </c>
@@ -1589,7 +1660,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="29"/>
       <c r="C28" t="s">
         <v>60</v>
       </c>
@@ -1600,11 +1672,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="29"/>
       <c r="C29" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="D29" s="27">
+      <c r="D29" s="17">
         <f>D26*D25</f>
         <v>5820</v>
       </c>
@@ -1612,184 +1685,210 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C31" s="24" t="s">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="29"/>
+      <c r="C31" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
-    </row>
-    <row r="32" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="29"/>
       <c r="C32" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D32" s="16" t="s">
+      <c r="D32" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E32" s="16"/>
-    </row>
-    <row r="33" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E32" s="18"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33" s="29"/>
       <c r="C33" t="s">
         <v>15</v>
       </c>
-      <c r="D33" s="18">
+      <c r="D33" s="21">
         <f>D29*D28</f>
         <v>407400000</v>
       </c>
-      <c r="E33" s="18"/>
-    </row>
-    <row r="34" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E33" s="21"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34" s="29"/>
       <c r="C34" t="s">
         <v>0</v>
       </c>
-      <c r="D34" s="18">
+      <c r="D34" s="21">
         <f>G21+G17</f>
         <v>375560000</v>
       </c>
-      <c r="E34" s="18"/>
-    </row>
-    <row r="35" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E34" s="21"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35" s="29"/>
       <c r="C35" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D35" s="23">
+      <c r="D35" s="26">
         <f>D33-D34</f>
         <v>31840000</v>
       </c>
-      <c r="E35" s="23"/>
-    </row>
-    <row r="37" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C37" s="24" t="s">
+      <c r="E35" s="26"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B36" s="29"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B37" s="29"/>
+      <c r="C37" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="D37" s="24"/>
-      <c r="E37" s="24"/>
-    </row>
-    <row r="38" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D37" s="25"/>
+      <c r="E37" s="25"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B38" s="29"/>
       <c r="C38" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D38" s="16" t="s">
+      <c r="D38" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="E38" s="16"/>
-    </row>
-    <row r="39" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E38" s="18"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B39" s="29"/>
       <c r="C39" s="8">
         <f>D35</f>
         <v>31840000</v>
       </c>
-      <c r="D39" s="26">
+      <c r="D39" s="28">
         <v>0.51</v>
       </c>
-      <c r="E39" s="26"/>
-    </row>
-    <row r="40" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E39" s="28"/>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B40" s="29"/>
       <c r="C40" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D40" s="18">
+      <c r="D40" s="21">
         <f>C39*D39</f>
         <v>16238400</v>
       </c>
-      <c r="E40" s="19"/>
-    </row>
-    <row r="42" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C42" s="24" t="s">
+      <c r="E40" s="23"/>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B42" s="29"/>
+      <c r="C42" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="D42" s="24"/>
-      <c r="E42" s="24"/>
-      <c r="F42" s="24"/>
-    </row>
-    <row r="43" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D42" s="25"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B43" s="29"/>
       <c r="C43" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D43" s="16" t="s">
+      <c r="D43" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="E43" s="16"/>
+      <c r="E43" s="18"/>
       <c r="F43" s="10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="44" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B44" s="29"/>
       <c r="C44">
         <v>1</v>
       </c>
-      <c r="D44" s="18">
+      <c r="D44" s="21">
         <f>D40</f>
         <v>16238400</v>
       </c>
-      <c r="E44" s="19"/>
+      <c r="E44" s="23"/>
       <c r="F44" s="5">
         <f>C50/2</f>
         <v>4.3237831504952604</v>
       </c>
     </row>
-    <row r="45" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B45" s="29"/>
       <c r="C45">
         <v>2</v>
       </c>
-      <c r="D45" s="18">
+      <c r="D45" s="21">
         <f>D40</f>
         <v>16238400</v>
       </c>
-      <c r="E45" s="19"/>
+      <c r="E45" s="23"/>
       <c r="F45" s="5">
         <f>F44</f>
         <v>4.3237831504952604</v>
       </c>
     </row>
-    <row r="46" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B46" s="29"/>
       <c r="C46" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D46" s="23">
+      <c r="D46" s="26">
         <f>SUM(D44:E45)</f>
         <v>32476800</v>
       </c>
-      <c r="E46" s="17"/>
+      <c r="E46" s="19"/>
       <c r="F46" s="15">
         <f>F44+F45</f>
         <v>8.6475663009905208</v>
       </c>
     </row>
-    <row r="48" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C48" s="24" t="s">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B47" s="29"/>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B48" s="29"/>
+      <c r="C48" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="D48" s="24"/>
-      <c r="E48" s="24"/>
-      <c r="F48" s="24"/>
-      <c r="G48" s="24"/>
-    </row>
-    <row r="49" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D48" s="25"/>
+      <c r="E48" s="25"/>
+      <c r="F48" s="25"/>
+      <c r="G48" s="25"/>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B49" s="29"/>
       <c r="C49" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D49" s="17" t="s">
+      <c r="D49" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="E49" s="17"/>
+      <c r="E49" s="19"/>
       <c r="F49" s="2" t="s">
         <v>28</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="50" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="H49" s="16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B50" s="29"/>
       <c r="C50" s="5">
         <f>(D46/G50)*100</f>
         <v>8.6475663009905208</v>
       </c>
-      <c r="D50" s="25">
+      <c r="D50" s="27">
         <f>F44</f>
         <v>4.3237831504952604</v>
       </c>
-      <c r="E50" s="19"/>
+      <c r="E50" s="23"/>
       <c r="F50" s="6">
         <f>C50/12</f>
         <v>0.72063052508254344</v>
@@ -1799,7 +1898,7 @@
         <v>375560000</v>
       </c>
     </row>
-    <row r="52" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
       <c r="G52" s="8">
         <f>G50+D46</f>
         <v>408036800</v>
@@ -1811,18 +1910,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
     <mergeCell ref="D50:E50"/>
     <mergeCell ref="D38:E38"/>
     <mergeCell ref="C37:E37"/>
@@ -1835,6 +1922,18 @@
     <mergeCell ref="D46:E46"/>
     <mergeCell ref="D49:E49"/>
     <mergeCell ref="C48:G48"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="C19:G19"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D5" r:id="rId1" xr:uid="{1B8C0CC6-CD81-420A-AACF-CA2CDD8602FE}"/>

--- a/PPL.xlsx
+++ b/PPL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ppl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ppl2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7345E94A-3660-4E55-A1A2-44348F60B3D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9977E82F-4E6A-4664-9D5E-BF039DBE95D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="2" xr2:uid="{715C4A53-39D8-4EE5-B379-BEA38DED56CE}"/>
+    <workbookView xWindow="28680" yWindow="-12195" windowWidth="18240" windowHeight="28590" activeTab="2" xr2:uid="{715C4A53-39D8-4EE5-B379-BEA38DED56CE}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -258,8 +258,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -324,7 +324,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="30">
@@ -335,12 +335,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -352,46 +352,46 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency [0]" xfId="1" builtinId="7"/>
@@ -730,12 +730,12 @@
       </c>
     </row>
     <row r="9" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
     </row>
     <row r="10" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C10" s="2" t="s">
@@ -767,12 +767,12 @@
       </c>
     </row>
     <row r="13" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
     </row>
     <row r="14" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C14" s="2" t="s">
@@ -804,13 +804,13 @@
       </c>
     </row>
     <row r="17" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
     </row>
     <row r="18" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C18" s="10" t="s">
@@ -855,12 +855,12 @@
       </c>
     </row>
     <row r="21" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
     </row>
     <row r="22" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C22" s="10" t="s">
@@ -895,11 +895,11 @@
       </c>
     </row>
     <row r="25" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
     </row>
     <row r="26" spans="3:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C26" s="11" t="s">
@@ -926,11 +926,11 @@
       </c>
     </row>
     <row r="29" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C29" s="18" t="s">
+      <c r="C29" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
     </row>
     <row r="30" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C30" s="10" t="s">
@@ -996,12 +996,12 @@
       </c>
     </row>
     <row r="36" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C36" s="18" t="s">
+      <c r="C36" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
     </row>
     <row r="37" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C37" s="10" t="s">
@@ -1077,22 +1077,22 @@
       <c r="E6" s="13"/>
     </row>
     <row r="9" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
     </row>
     <row r="10" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C10" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="18"/>
+      <c r="E10" s="19"/>
       <c r="F10" s="10" t="s">
         <v>3</v>
       </c>
@@ -1104,10 +1104,10 @@
       <c r="C11" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="22">
+      <c r="D11" s="25">
         <v>32</v>
       </c>
-      <c r="E11" s="22"/>
+      <c r="E11" s="25"/>
       <c r="F11" s="3">
         <v>21000000</v>
       </c>
@@ -1120,10 +1120,10 @@
       <c r="C12" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="22">
+      <c r="D12" s="25">
         <v>1</v>
       </c>
-      <c r="E12" s="22"/>
+      <c r="E12" s="25"/>
       <c r="F12" s="3">
         <v>15010000</v>
       </c>
@@ -1133,34 +1133,34 @@
       </c>
     </row>
     <row r="13" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
       <c r="G13" s="8">
         <f>SUM(G11:G12)</f>
         <v>687010000</v>
       </c>
     </row>
     <row r="15" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
     </row>
     <row r="16" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C16" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E16" s="18"/>
+      <c r="E16" s="19"/>
       <c r="F16" s="10" t="s">
         <v>3</v>
       </c>
@@ -1172,10 +1172,10 @@
       <c r="C17" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="22">
+      <c r="D17" s="25">
         <v>4</v>
       </c>
-      <c r="E17" s="22"/>
+      <c r="E17" s="25"/>
       <c r="F17" s="3">
         <v>3435000</v>
       </c>
@@ -1185,22 +1185,22 @@
       </c>
     </row>
     <row r="19" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
       <c r="G19" s="9"/>
     </row>
     <row r="20" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C20" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="18" t="s">
+      <c r="D20" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="18"/>
+      <c r="E20" s="19"/>
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
     </row>
@@ -1219,10 +1219,10 @@
       <c r="C22" t="s">
         <v>38</v>
       </c>
-      <c r="D22" s="20">
+      <c r="D22" s="24">
         <v>60000</v>
       </c>
-      <c r="E22" s="20"/>
+      <c r="E22" s="24"/>
     </row>
     <row r="23" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C23" s="10" t="s">
@@ -1235,20 +1235,20 @@
       <c r="E23" s="21"/>
     </row>
     <row r="25" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
     </row>
     <row r="26" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C26" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="18" t="s">
+      <c r="D26" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E26" s="18"/>
+      <c r="E26" s="19"/>
     </row>
     <row r="27" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
@@ -1272,17 +1272,17 @@
         <v>0</v>
       </c>
       <c r="D29" s="21"/>
-      <c r="E29" s="23"/>
+      <c r="E29" s="22"/>
     </row>
     <row r="30" spans="3:7" ht="30" x14ac:dyDescent="0.25">
       <c r="C30" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D30" s="24">
+      <c r="D30" s="23">
         <f>D27-G34-H34</f>
         <v>98505000</v>
       </c>
-      <c r="E30" s="24"/>
+      <c r="E30" s="23"/>
     </row>
     <row r="34" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G34" s="3">
@@ -1300,11 +1300,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="C25:E25"/>
@@ -1318,6 +1313,11 @@
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D6" r:id="rId1" xr:uid="{3D458DB7-7D50-4C23-9D3C-DD73ED37A0C9}"/>
@@ -1330,8 +1330,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B02035BF-BBDF-46B8-A180-61E628B79444}">
   <dimension ref="B5:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1350,24 +1350,24 @@
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="29"/>
-      <c r="C7" s="25" t="s">
+      <c r="B7" s="18"/>
+      <c r="C7" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="29"/>
+      <c r="B8" s="18"/>
       <c r="C8" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="18"/>
+      <c r="E8" s="19"/>
       <c r="F8" s="10" t="s">
         <v>3</v>
       </c>
@@ -1376,7 +1376,7 @@
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="29"/>
+      <c r="B9" s="18"/>
       <c r="C9" t="s">
         <v>45</v>
       </c>
@@ -1398,7 +1398,7 @@
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="29"/>
+      <c r="B10" s="18"/>
       <c r="C10" t="s">
         <v>47</v>
       </c>
@@ -1420,7 +1420,7 @@
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="29"/>
+      <c r="B11" s="18"/>
       <c r="C11" t="s">
         <v>48</v>
       </c>
@@ -1442,7 +1442,7 @@
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="29"/>
+      <c r="B12" s="18"/>
       <c r="C12" t="s">
         <v>50</v>
       </c>
@@ -1464,7 +1464,7 @@
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="29"/>
+      <c r="B13" s="18"/>
       <c r="C13" t="s">
         <v>51</v>
       </c>
@@ -1486,7 +1486,7 @@
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="29"/>
+      <c r="B14" s="18"/>
       <c r="C14" t="s">
         <v>52</v>
       </c>
@@ -1508,7 +1508,7 @@
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="29"/>
+      <c r="B15" s="18"/>
       <c r="C15" t="s">
         <v>63</v>
       </c>
@@ -1527,7 +1527,7 @@
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="29"/>
+      <c r="B16" s="18"/>
       <c r="C16" t="s">
         <v>53</v>
       </c>
@@ -1546,40 +1546,40 @@
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="29"/>
-      <c r="C17" s="19" t="s">
+      <c r="B17" s="18"/>
+      <c r="C17" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
       <c r="G17" s="14">
         <f>SUM(G9:G16)</f>
         <v>343560000</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="29"/>
+      <c r="B18" s="18"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="29"/>
-      <c r="C19" s="25" t="s">
+      <c r="B19" s="18"/>
+      <c r="C19" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="29"/>
+      <c r="B20" s="18"/>
       <c r="C20" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D20" s="18" t="s">
+      <c r="D20" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E20" s="18"/>
+      <c r="E20" s="19"/>
       <c r="F20" s="10" t="s">
         <v>3</v>
       </c>
@@ -1588,7 +1588,7 @@
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="29"/>
+      <c r="B21" s="18"/>
       <c r="C21" t="s">
         <v>7</v>
       </c>
@@ -1607,25 +1607,25 @@
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="29"/>
-      <c r="C23" s="25" t="s">
+      <c r="B23" s="18"/>
+      <c r="C23" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="29"/>
+      <c r="B24" s="18"/>
       <c r="C24" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D24" s="18" t="s">
+      <c r="D24" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E24" s="18"/>
+      <c r="E24" s="19"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="29"/>
+      <c r="B25" s="18"/>
       <c r="C25" t="s">
         <v>56</v>
       </c>
@@ -1637,7 +1637,7 @@
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="29"/>
+      <c r="B26" s="18"/>
       <c r="C26" t="s">
         <v>57</v>
       </c>
@@ -1649,7 +1649,7 @@
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="29"/>
+      <c r="B27" s="18"/>
       <c r="C27" t="s">
         <v>59</v>
       </c>
@@ -1661,7 +1661,7 @@
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="29"/>
+      <c r="B28" s="18"/>
       <c r="C28" t="s">
         <v>60</v>
       </c>
@@ -1673,7 +1673,7 @@
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="29"/>
+      <c r="B29" s="18"/>
       <c r="C29" s="10" t="s">
         <v>61</v>
       </c>
@@ -1686,25 +1686,25 @@
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="29"/>
-      <c r="C31" s="25" t="s">
+      <c r="B31" s="18"/>
+      <c r="C31" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B32" s="29"/>
+      <c r="B32" s="18"/>
       <c r="C32" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D32" s="18" t="s">
+      <c r="D32" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E32" s="18"/>
+      <c r="E32" s="19"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B33" s="29"/>
+      <c r="B33" s="18"/>
       <c r="C33" t="s">
         <v>15</v>
       </c>
@@ -1715,7 +1715,7 @@
       <c r="E33" s="21"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B34" s="29"/>
+      <c r="B34" s="18"/>
       <c r="C34" t="s">
         <v>0</v>
       </c>
@@ -1726,39 +1726,39 @@
       <c r="E34" s="21"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B35" s="29"/>
+      <c r="B35" s="18"/>
       <c r="C35" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D35" s="26">
+      <c r="D35" s="29">
         <f>D33-D34</f>
         <v>31840000</v>
       </c>
-      <c r="E35" s="26"/>
+      <c r="E35" s="29"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B36" s="29"/>
+      <c r="B36" s="18"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B37" s="29"/>
-      <c r="C37" s="25" t="s">
+      <c r="B37" s="18"/>
+      <c r="C37" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="D37" s="25"/>
-      <c r="E37" s="25"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="27"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B38" s="29"/>
+      <c r="B38" s="18"/>
       <c r="C38" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D38" s="18" t="s">
+      <c r="D38" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="E38" s="18"/>
+      <c r="E38" s="19"/>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B39" s="29"/>
+      <c r="B39" s="18"/>
       <c r="C39" s="8">
         <f>D35</f>
         <v>31840000</v>
@@ -1769,7 +1769,7 @@
       <c r="E39" s="28"/>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B40" s="29"/>
+      <c r="B40" s="18"/>
       <c r="C40" s="2" t="s">
         <v>4</v>
       </c>
@@ -1777,32 +1777,32 @@
         <f>C39*D39</f>
         <v>16238400</v>
       </c>
-      <c r="E40" s="23"/>
+      <c r="E40" s="22"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="29"/>
-      <c r="C42" s="25" t="s">
+      <c r="B42" s="18"/>
+      <c r="C42" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="D42" s="25"/>
-      <c r="E42" s="25"/>
-      <c r="F42" s="25"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="27"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="29"/>
+      <c r="B43" s="18"/>
       <c r="C43" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D43" s="18" t="s">
+      <c r="D43" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="E43" s="18"/>
+      <c r="E43" s="19"/>
       <c r="F43" s="10" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="29"/>
+      <c r="B44" s="18"/>
       <c r="C44">
         <v>1</v>
       </c>
@@ -1810,14 +1810,14 @@
         <f>D40</f>
         <v>16238400</v>
       </c>
-      <c r="E44" s="23"/>
+      <c r="E44" s="22"/>
       <c r="F44" s="5">
         <f>C50/2</f>
         <v>4.3237831504952604</v>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B45" s="29"/>
+      <c r="B45" s="18"/>
       <c r="C45">
         <v>2</v>
       </c>
@@ -1825,49 +1825,49 @@
         <f>D40</f>
         <v>16238400</v>
       </c>
-      <c r="E45" s="23"/>
+      <c r="E45" s="22"/>
       <c r="F45" s="5">
         <f>F44</f>
         <v>4.3237831504952604</v>
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B46" s="29"/>
+      <c r="B46" s="18"/>
       <c r="C46" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D46" s="26">
+      <c r="D46" s="29">
         <f>SUM(D44:E45)</f>
         <v>32476800</v>
       </c>
-      <c r="E46" s="19"/>
+      <c r="E46" s="20"/>
       <c r="F46" s="15">
         <f>F44+F45</f>
         <v>8.6475663009905208</v>
       </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B47" s="29"/>
+      <c r="B47" s="18"/>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B48" s="29"/>
-      <c r="C48" s="25" t="s">
+      <c r="B48" s="18"/>
+      <c r="C48" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="D48" s="25"/>
-      <c r="E48" s="25"/>
-      <c r="F48" s="25"/>
-      <c r="G48" s="25"/>
+      <c r="D48" s="27"/>
+      <c r="E48" s="27"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="27"/>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B49" s="29"/>
+      <c r="B49" s="18"/>
       <c r="C49" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D49" s="19" t="s">
+      <c r="D49" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="E49" s="19"/>
+      <c r="E49" s="20"/>
       <c r="F49" s="2" t="s">
         <v>28</v>
       </c>
@@ -1879,16 +1879,16 @@
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B50" s="29"/>
+      <c r="B50" s="18"/>
       <c r="C50" s="5">
         <f>(D46/G50)*100</f>
         <v>8.6475663009905208</v>
       </c>
-      <c r="D50" s="27">
+      <c r="D50" s="26">
         <f>F44</f>
         <v>4.3237831504952604</v>
       </c>
-      <c r="E50" s="23"/>
+      <c r="E50" s="22"/>
       <c r="F50" s="6">
         <f>C50/12</f>
         <v>0.72063052508254344</v>
@@ -1910,6 +1910,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
     <mergeCell ref="D50:E50"/>
     <mergeCell ref="D38:E38"/>
     <mergeCell ref="C37:E37"/>
@@ -1922,18 +1934,6 @@
     <mergeCell ref="D46:E46"/>
     <mergeCell ref="D49:E49"/>
     <mergeCell ref="C48:G48"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="C19:G19"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D5" r:id="rId1" xr:uid="{1B8C0CC6-CD81-420A-AACF-CA2CDD8602FE}"/>
